--- a/py_xls.xlsx
+++ b/py_xls.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,6 +25,30 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="10"/>
+    </font>
+    <font>
+      <name val="12"/>
+    </font>
+    <font>
+      <name val="6"/>
+    </font>
+    <font>
+      <name val="8"/>
+    </font>
+    <font>
+      <name val="5"/>
+    </font>
+    <font>
+      <name val="11"/>
+    </font>
+    <font>
+      <name val="9"/>
+    </font>
+    <font>
+      <name val="7"/>
+    </font>
   </fonts>
   <fills count="27">
     <fill>
@@ -35,127 +59,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00d340d5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00a7e1f6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00e2dff2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005ae5c5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00367b34"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00a5f9eb"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0025f58f"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00dd093c"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00a287d3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003db515"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00db927d"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00e00d1e"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007d4484"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00a516b4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00629435"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00f58a64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0075a7c3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00f7fcc3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00f18165"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ed8c17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0030aa9e"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00894669"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001927f9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00fe2eeb"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0030b11b"/>
+        <fgColor rgb="00af190e"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c5401e"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00de5b4c"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006d589f"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00720221"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005378ef"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffce70"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006ac8fb"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002015e6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00a35d8f"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00cc937d"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f4cf9b"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0081422b"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001371fe"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0075b3e0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0011f21f"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047af75"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e24a22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea985e"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00701653"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e1cfb3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00800b34"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0027bd10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003546f5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0049f889"/>
       </patternFill>
     </fill>
   </fills>
@@ -173,31 +197,31 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -560,7 +584,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="00c819a4"/>
+    <tabColor rgb="00155f9a"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -575,135 +599,135 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>d340d5</t>
+          <t>af190e</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>a7e1f6</t>
+          <t>c5401e</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>e2dff2</t>
+          <t>de5b4c</t>
         </is>
       </c>
       <c r="D1" s="4" t="inlineStr">
         <is>
-          <t>5ae5c5</t>
+          <t>6d589f</t>
         </is>
       </c>
       <c r="E1" s="5" t="inlineStr">
         <is>
-          <t>367b34</t>
+          <t>720221</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
         <is>
-          <t>a5f9eb</t>
+          <t>5378ef</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
         <is>
-          <t>25f58f</t>
+          <t>ffce70</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>dd093c</t>
+          <t>6ac8fb</t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t>a287d3</t>
+          <t>2015e6</t>
         </is>
       </c>
       <c r="E2" s="10" t="inlineStr">
         <is>
-          <t>3db515</t>
+          <t>a35d8f</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>db927d</t>
+          <t>cc937d</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>e00d1e</t>
+          <t>f4cf9b</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>7d4484</t>
+          <t>81422b</t>
         </is>
       </c>
       <c r="D3" s="14" t="inlineStr">
         <is>
-          <t>a516b4</t>
+          <t>1371fe</t>
         </is>
       </c>
       <c r="E3" s="15" t="inlineStr">
         <is>
-          <t>629435</t>
+          <t>75b3e0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="inlineStr">
         <is>
-          <t>f58a64</t>
+          <t>11f21f</t>
         </is>
       </c>
       <c r="B4" s="17" t="inlineStr">
         <is>
-          <t>75a7c3</t>
+          <t>47af75</t>
         </is>
       </c>
       <c r="C4" s="18" t="inlineStr">
         <is>
-          <t>f7fcc3</t>
+          <t>e24a22</t>
         </is>
       </c>
       <c r="D4" s="19" t="inlineStr">
         <is>
-          <t>f18165</t>
+          <t>ea985e</t>
         </is>
       </c>
       <c r="E4" s="20" t="inlineStr">
         <is>
-          <t>ed8c17</t>
+          <t>701653</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="inlineStr">
         <is>
-          <t>30aa9e</t>
+          <t>e1cfb3</t>
         </is>
       </c>
       <c r="B5" s="22" t="inlineStr">
         <is>
-          <t>894669</t>
+          <t>800b34</t>
         </is>
       </c>
       <c r="C5" s="23" t="inlineStr">
         <is>
-          <t>1927f9</t>
+          <t>27bd10</t>
         </is>
       </c>
       <c r="D5" s="24" t="inlineStr">
         <is>
-          <t>fe2eeb</t>
+          <t>3546f5</t>
         </is>
       </c>
       <c r="E5" s="25" t="inlineStr">
         <is>
-          <t>30b11b</t>
+          <t>49f889</t>
         </is>
       </c>
     </row>

--- a/py_xls.xlsx
+++ b/py_xls.xlsx
@@ -26,28 +26,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="7"/>
+    </font>
+    <font>
+      <name val="12"/>
+    </font>
+    <font>
+      <name val="8"/>
+    </font>
+    <font>
+      <name val="9"/>
+    </font>
+    <font>
       <name val="10"/>
     </font>
     <font>
-      <name val="12"/>
-    </font>
-    <font>
       <name val="6"/>
     </font>
     <font>
-      <name val="8"/>
+      <name val="11"/>
     </font>
     <font>
       <name val="5"/>
-    </font>
-    <font>
-      <name val="11"/>
-    </font>
-    <font>
-      <name val="9"/>
-    </font>
-    <font>
-      <name val="7"/>
     </font>
   </fonts>
   <fills count="27">
@@ -59,127 +59,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00af190e"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00c5401e"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00de5b4c"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006d589f"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00720221"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005378ef"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffce70"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006ac8fb"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002015e6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00a35d8f"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00cc937d"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00f4cf9b"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0081422b"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001371fe"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0075b3e0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0011f21f"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047af75"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00e24a22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea985e"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00701653"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00e1cfb3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00800b34"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0027bd10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003546f5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0049f889"/>
+        <fgColor rgb="00e8cf2b"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00314f9b"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b891bd"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001327f8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0016d0f9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00932474"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d71b0f"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003f009a"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00945ec9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00544805"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00345c97"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002399f3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002a2896"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0065f36e"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ddf21c"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008072c3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0027d4cf"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00618766"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001df9bd"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00503ffa"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0064b4fe"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ddde07"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00dd7937"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00312258"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003d2322"/>
       </patternFill>
     </fill>
   </fills>
@@ -202,26 +202,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -584,7 +584,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="00155f9a"/>
+    <tabColor rgb="00bd5322"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -599,135 +599,135 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>af190e</t>
+          <t>f8de0a</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>c5401e</t>
+          <t>f93804</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>de5b4c</t>
+          <t>c72c91</t>
         </is>
       </c>
       <c r="D1" s="4" t="inlineStr">
         <is>
-          <t>6d589f</t>
+          <t>e8fad9</t>
         </is>
       </c>
       <c r="E1" s="5" t="inlineStr">
         <is>
-          <t>720221</t>
+          <t>1b5196</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
         <is>
-          <t>5378ef</t>
+          <t>22a2f5</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
         <is>
-          <t>ffce70</t>
+          <t>830627</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>6ac8fb</t>
+          <t>bd04da</t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t>2015e6</t>
+          <t>ec0a97</t>
         </is>
       </c>
       <c r="E2" s="10" t="inlineStr">
         <is>
-          <t>a35d8f</t>
+          <t>7953f</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>cc937d</t>
+          <t>ebacd3</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>f4cf9b</t>
+          <t>194d31</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>81422b</t>
+          <t>ab091c</t>
         </is>
       </c>
       <c r="D3" s="14" t="inlineStr">
         <is>
-          <t>1371fe</t>
+          <t>888edd</t>
         </is>
       </c>
       <c r="E3" s="15" t="inlineStr">
         <is>
-          <t>75b3e0</t>
+          <t>b99c52</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="inlineStr">
         <is>
-          <t>11f21f</t>
+          <t>17cd29</t>
         </is>
       </c>
       <c r="B4" s="17" t="inlineStr">
         <is>
-          <t>47af75</t>
+          <t>6044c9</t>
         </is>
       </c>
       <c r="C4" s="18" t="inlineStr">
         <is>
-          <t>e24a22</t>
+          <t>65d04</t>
         </is>
       </c>
       <c r="D4" s="19" t="inlineStr">
         <is>
-          <t>ea985e</t>
+          <t>df0ac3</t>
         </is>
       </c>
       <c r="E4" s="20" t="inlineStr">
         <is>
-          <t>701653</t>
+          <t>2df32f</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="inlineStr">
         <is>
-          <t>e1cfb3</t>
+          <t>aa3b3e</t>
         </is>
       </c>
       <c r="B5" s="22" t="inlineStr">
         <is>
-          <t>800b34</t>
+          <t>97326d</t>
         </is>
       </c>
       <c r="C5" s="23" t="inlineStr">
         <is>
-          <t>27bd10</t>
+          <t>8f5e75</t>
         </is>
       </c>
       <c r="D5" s="24" t="inlineStr">
         <is>
-          <t>3546f5</t>
+          <t>656ddc</t>
         </is>
       </c>
       <c r="E5" s="25" t="inlineStr">
         <is>
-          <t>49f889</t>
+          <t>530e02</t>
         </is>
       </c>
     </row>

--- a/py_xls.xlsx
+++ b/py_xls.xlsx
@@ -26,31 +26,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="3"/>
+    </font>
+    <font>
+      <name val="9"/>
+    </font>
+    <font>
+      <name val="5"/>
+    </font>
+    <font>
+      <name val="4"/>
+    </font>
+    <font>
+      <name val="8"/>
+    </font>
+    <font>
       <name val="7"/>
     </font>
     <font>
-      <name val="12"/>
-    </font>
-    <font>
-      <name val="8"/>
-    </font>
-    <font>
-      <name val="9"/>
-    </font>
-    <font>
       <name val="10"/>
     </font>
     <font>
       <name val="6"/>
     </font>
-    <font>
-      <name val="11"/>
-    </font>
-    <font>
-      <name val="5"/>
-    </font>
   </fonts>
-  <fills count="27">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -59,127 +59,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00e8cf2b"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00314f9b"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00b891bd"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001327f8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0016d0f9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00932474"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00d71b0f"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003f009a"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00945ec9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00544805"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00345c97"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002399f3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002a2896"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0065f36e"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ddf21c"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008072c3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0027d4cf"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00618766"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001df9bd"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00503ffa"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0064b4fe"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ddde07"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00dd7937"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00312258"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003d2322"/>
+        <fgColor rgb="ffdd0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -195,33 +75,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -584,7 +447,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="00bd5322"/>
+    <tabColor rgb="ff9be197"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -599,135 +462,135 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>f8de0a</t>
+          <t>924484</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>f93804</t>
+          <t>f284e7</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>c72c91</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>e8fad9</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>1b5196</t>
+          <t>2a9f8f</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f4161</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>bff7d7</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
-        <is>
-          <t>22a2f5</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>830627</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>bd04da</t>
-        </is>
-      </c>
-      <c r="D2" s="9" t="inlineStr">
-        <is>
-          <t>ec0a97</t>
-        </is>
-      </c>
-      <c r="E2" s="10" t="inlineStr">
-        <is>
-          <t>7953f</t>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>d5058b</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>cc8ffc</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>6e7efd</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>b3a4b8</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>84d1cb</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>ebacd3</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>194d31</t>
-        </is>
-      </c>
-      <c r="C3" s="13" t="inlineStr">
-        <is>
-          <t>ab091c</t>
-        </is>
-      </c>
-      <c r="D3" s="14" t="inlineStr">
-        <is>
-          <t>888edd</t>
-        </is>
-      </c>
-      <c r="E3" s="15" t="inlineStr">
-        <is>
-          <t>b99c52</t>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>7e4a7e</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>47a103</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>e07f38</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>da2ff3</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>8b109</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="inlineStr">
-        <is>
-          <t>17cd29</t>
-        </is>
-      </c>
-      <c r="B4" s="17" t="inlineStr">
-        <is>
-          <t>6044c9</t>
-        </is>
-      </c>
-      <c r="C4" s="18" t="inlineStr">
-        <is>
-          <t>65d04</t>
-        </is>
-      </c>
-      <c r="D4" s="19" t="inlineStr">
-        <is>
-          <t>df0ac3</t>
-        </is>
-      </c>
-      <c r="E4" s="20" t="inlineStr">
-        <is>
-          <t>2df32f</t>
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>98ae63</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>739262</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>62dd4e</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>bf0f56</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>81b166</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="inlineStr">
-        <is>
-          <t>aa3b3e</t>
-        </is>
-      </c>
-      <c r="B5" s="22" t="inlineStr">
-        <is>
-          <t>97326d</t>
-        </is>
-      </c>
-      <c r="C5" s="23" t="inlineStr">
-        <is>
-          <t>8f5e75</t>
-        </is>
-      </c>
-      <c r="D5" s="24" t="inlineStr">
-        <is>
-          <t>656ddc</t>
-        </is>
-      </c>
-      <c r="E5" s="25" t="inlineStr">
-        <is>
-          <t>530e02</t>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>7adac3</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>458989</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>828c74</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>52cc15</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>41d9f4</t>
         </is>
       </c>
     </row>
